--- a/docs/Schaltplan.xlsx
+++ b/docs/Schaltplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirko/Nextcloud/dev/WeatherPi/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CB3649-F1DA-1148-85D3-2A15BBD74EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D68B6D0-B979-D34F-A2BC-6490E5B8E7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32760" windowHeight="20500" activeTab="1" xr2:uid="{F6F2A7A3-5325-C148-B9A5-9EFB4E53E524}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32760" windowHeight="20500" xr2:uid="{F6F2A7A3-5325-C148-B9A5-9EFB4E53E524}"/>
   </bookViews>
   <sheets>
     <sheet name="Klemmleisten" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="128">
   <si>
     <t>Leiste 1</t>
   </si>
@@ -1409,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F507A85-E076-E640-90D6-14D87EC98633}">
-  <dimension ref="A2:N32"/>
+  <dimension ref="A2:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1625,86 +1625,172 @@
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
@@ -1712,16 +1798,19 @@
       <c r="D25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>26</v>
@@ -1729,16 +1818,19 @@
       <c r="D26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>26</v>
@@ -1750,119 +1842,23 @@
         <v>26</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BBCD80-E7EA-A84E-BD3D-7D5E3E49BC79}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -2415,5 +2411,6 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>